--- a/Employee_Reports28/Sugathadasa Pattiwilage Q0376.xlsx
+++ b/Employee_Reports28/Sugathadasa Pattiwilage Q0376.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -571,11 +568,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -620,11 +617,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -669,11 +666,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -718,11 +715,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -767,11 +764,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -816,11 +813,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -865,11 +862,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -914,11 +911,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -963,11 +960,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1012,11 +1009,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1061,11 +1058,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1110,11 +1107,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1159,11 +1156,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1208,11 +1205,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1257,11 +1254,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1304,11 +1301,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1352,11 +1349,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-95</v>
+        <v>-103</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1399,11 +1396,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>-172</v>
+        <v>-180</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1446,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>-33</v>
+        <v>-41</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1483,11 +1480,11 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>-33</v>
+        <v>-41</v>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1530,11 +1527,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1577,11 +1574,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1624,11 +1621,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1661,11 +1658,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1698,11 +1695,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
